--- a/testing/conditions.xlsx
+++ b/testing/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timdr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Experiments\tid_psam\psam\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A654C2B1-4AA6-483F-ADDF-7B87F2AECDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C937BAB8-9343-4469-A3F4-83CB01ED3F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{527D6CE6-FE4F-4979-9A18-2739225E46E4}"/>
+    <workbookView xWindow="6810" yWindow="3540" windowWidth="21600" windowHeight="11385" xr2:uid="{527D6CE6-FE4F-4979-9A18-2739225E46E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55F2D54-0A7E-4614-8A55-B2E843F77F72}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -429,7 +427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -437,15 +435,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -453,7 +451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -461,27 +459,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
